--- a/resources/objects/stimuli/practice.xlsx
+++ b/resources/objects/stimuli/practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\picture-plausability\resources\objects\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-plausability\resources\objects\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563E16C-515E-4167-B028-D96A2957B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B71A27-B6A5-4F66-ACF6-6BF2AB4CBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
+    <workbookView xWindow="6960" yWindow="972" windowWidth="17280" windowHeight="8880" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>cherry</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>resources/pictures/cherry.jpg</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,25 +502,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -540,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -551,19 +551,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resources/objects/stimuli/practice.xlsx
+++ b/resources/objects/stimuli/practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-plausability\resources\objects\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B71A27-B6A5-4F66-ACF6-6BF2AB4CBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3050209F-F067-4257-A654-694A34757BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="972" windowWidth="17280" windowHeight="8880" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>practice (4)</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>implausible</t>
+  </si>
+  <si>
+    <t>resources/pictures/n7.png</t>
+  </si>
+  <si>
+    <t>resources/pictures/im21.jpg</t>
   </si>
 </sst>
 </file>
@@ -487,16 +499,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64469EC-B2F6-4549-89F9-8C605AC67B83}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
@@ -566,6 +578,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
